--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_4.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="55">
   <si>
     <t>Sezione</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -229,7 +235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -666,7 +672,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>26</v>
@@ -683,19 +689,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -706,19 +712,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -729,19 +735,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -752,19 +758,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -775,19 +781,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -798,19 +804,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -821,19 +827,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -844,19 +850,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -867,19 +873,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -890,19 +896,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -913,19 +919,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -936,19 +942,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -962,13 +968,13 @@
         <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>47</v>
@@ -977,6 +983,52 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_4.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="88">
   <si>
     <t>Sezione</t>
   </si>
@@ -41,21 +41,27 @@
     <t>122-bis</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>122-bis.2</t>
+  </si>
+  <si>
+    <t>Si puo' ignorare la sezione per</t>
+  </si>
+  <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
-  </si>
-  <si>
     <t>evento</t>
   </si>
   <si>
@@ -89,15 +95,15 @@
     <t>Id atto</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.datiAdozioneMinoriInternazionale.attoAdozione</t>
   </si>
   <si>
     <t>idAnsc</t>
   </si>
   <si>
+    <t>evento.datiAdozioneMinoriInternazionale.tipologia,in,(3)</t>
+  </si>
+  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
     <t>parte</t>
   </si>
   <si>
+    <t>122-bis.2,122-bis</t>
+  </si>
+  <si>
     <t>Serie</t>
   </si>
   <si>
@@ -164,19 +173,109 @@
     <t>tipologia</t>
   </si>
   <si>
+    <t>evento.datiAdozioneMinoriInternazionale.tipologia,in,(1,2)</t>
+  </si>
+  <si>
     <t>Atto di nascita del soggetto</t>
   </si>
   <si>
     <t>evento.datiAdozioneMinoriInternazionale.attoNascita</t>
   </si>
   <si>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.datiAdozioneMinoriInternazionale.autoritaMittente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Dati generali adozione</t>
+  </si>
+  <si>
+    <t>Vecchio cognome soggetto</t>
+  </si>
+  <si>
+    <t>evento.datiAdozioneMinoriInternazionale</t>
+  </si>
+  <si>
+    <t>vecchioCognomeIntestatario</t>
+  </si>
+  <si>
+    <t>Vecchio nome soggetto</t>
+  </si>
+  <si>
+    <t>vecchioNomeIntestatario</t>
+  </si>
+  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
     <t>Dati atto di nascita</t>
-  </si>
-  <si>
-    <t>evento.datiAdozioneMinoriInternazionale</t>
   </si>
 </sst>
 </file>
@@ -235,7 +334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -244,10 +343,10 @@
     <col min="1" max="1" width="25.46484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="51.10546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="54.15234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.7578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="53.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -297,86 +396,86 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -385,21 +484,21 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -408,67 +507,67 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -477,21 +576,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -500,21 +599,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -523,21 +622,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -546,228 +645,228 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -776,21 +875,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>33</v>
@@ -799,21 +898,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>35</v>
@@ -822,21 +921,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>37</v>
@@ -845,191 +944,812 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>16</v>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_4.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="90">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,16 +35,22 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
     <t>122-bis</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>122-bis.2</t>
@@ -334,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -397,108 +403,108 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -507,21 +513,21 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -530,67 +536,67 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -599,21 +605,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -622,21 +628,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -645,21 +651,21 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
@@ -668,127 +674,127 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
@@ -797,99 +803,99 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>33</v>
@@ -898,21 +904,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>35</v>
@@ -921,21 +927,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>37</v>
@@ -944,21 +950,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>39</v>
@@ -967,127 +973,127 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
@@ -1096,99 +1102,99 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>33</v>
@@ -1197,21 +1203,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>35</v>
@@ -1220,21 +1226,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>37</v>
@@ -1243,21 +1249,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>39</v>
@@ -1266,127 +1272,127 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>49</v>
@@ -1395,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>50</v>
@@ -1404,21 +1410,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>52</v>
@@ -1427,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1435,36 +1441,36 @@
         <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>61</v>
@@ -1473,21 +1479,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>63</v>
@@ -1496,21 +1502,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>65</v>
@@ -1519,12 +1525,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>66</v>
@@ -1533,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>67</v>
@@ -1542,12 +1548,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>68</v>
@@ -1556,7 +1562,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>69</v>
@@ -1565,12 +1571,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>70</v>
@@ -1579,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>71</v>
@@ -1588,12 +1594,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>72</v>
@@ -1602,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>73</v>
@@ -1611,12 +1617,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>74</v>
@@ -1625,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>75</v>
@@ -1634,21 +1640,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>77</v>
@@ -1657,21 +1663,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>79</v>
@@ -1680,44 +1686,44 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>85</v>
@@ -1726,30 +1732,53 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
